--- a/VZ/Tabulky_priloha.xlsx
+++ b/VZ/Tabulky_priloha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klarakrejcarova/Desktop/Sociologie/2024:25/LS/Alkohol/Alkodata/Nepiti-projekt/Nepiti/VZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F10A6C1-ED08-0A4D-B56A-C88ADF737F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA12D6B-D19E-9A4F-89FA-28C0A1A7262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16400" xr2:uid="{297F32F2-BD45-A64D-976D-64250AD2FF9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{297F32F2-BD45-A64D-976D-64250AD2FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Ano, vícekrát</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Tabulka 1: Způsob omezování alkoholu, podle demografického rozložení (v %)</t>
+  </si>
+  <si>
+    <t>(N=1022)</t>
   </si>
 </sst>
 </file>
@@ -226,9 +229,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -236,13 +238,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -282,6 +277,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6691290-E2C1-6649-BEED-A0F81D38C2BE}">
   <dimension ref="B3:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,367 +637,385 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="Q4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="21" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="21" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="21" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="12" t="s">
+      <c r="I6" s="18"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="12" t="s">
+      <c r="O6" s="18"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="22"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>14</v>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="K8" s="18" t="s">
+      <c r="C8" s="20">
+        <v>38</v>
+      </c>
+      <c r="D8" s="20">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20">
+        <v>41</v>
+      </c>
+      <c r="F8" s="20">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20">
+        <v>42</v>
+      </c>
+      <c r="H8" s="20">
+        <v>37</v>
+      </c>
+      <c r="I8" s="20">
+        <v>39</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="Q8" s="18" t="s">
+      <c r="L8" s="21">
+        <v>41</v>
+      </c>
+      <c r="M8" s="21">
+        <v>38</v>
+      </c>
+      <c r="N8" s="21">
+        <v>42</v>
+      </c>
+      <c r="O8" s="20">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="V8" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="W8" s="1"/>
+      <c r="R8" s="21">
+        <v>49</v>
+      </c>
+      <c r="S8" s="21">
+        <v>41</v>
+      </c>
+      <c r="T8" s="21">
+        <v>36</v>
+      </c>
+      <c r="U8" s="21">
+        <v>42</v>
+      </c>
+      <c r="V8" s="21">
+        <v>37</v>
+      </c>
+      <c r="W8" s="20">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="F9" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="K9" s="19" t="s">
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="M9" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="19" t="s">
+      <c r="L9" s="21">
+        <v>15</v>
+      </c>
+      <c r="M9" s="21">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="N9" s="21">
+        <v>5</v>
+      </c>
+      <c r="O9" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="R9" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="V9" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W9" s="4"/>
+      <c r="R9" s="21">
+        <v>8</v>
+      </c>
+      <c r="S9" s="21">
+        <v>6</v>
+      </c>
+      <c r="T9" s="21">
+        <v>10</v>
+      </c>
+      <c r="U9" s="21">
+        <v>4</v>
+      </c>
+      <c r="V9" s="21">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="W9" s="12">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="K10" s="20" t="s">
+      <c r="C10" s="9">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9">
+        <v>55</v>
+      </c>
+      <c r="G10" s="9">
+        <v>53</v>
+      </c>
+      <c r="H10" s="9">
+        <v>59</v>
+      </c>
+      <c r="I10" s="9">
+        <v>50</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="Q10" s="20" t="s">
+      <c r="L10" s="22">
+        <v>44</v>
+      </c>
+      <c r="M10" s="22">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="N10" s="22">
+        <v>53</v>
+      </c>
+      <c r="O10" s="9">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="W10" s="6"/>
+      <c r="R10" s="22">
+        <v>43</v>
+      </c>
+      <c r="S10" s="22">
+        <v>53</v>
+      </c>
+      <c r="T10" s="22">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="U10" s="22">
+        <v>54</v>
+      </c>
+      <c r="V10" s="22">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="W10" s="9">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
